--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2993.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2993.xlsx
@@ -354,7 +354,7 @@
         <v>2.470255655128852</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.282683596879825</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2993.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2993.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.182783172135092</v>
+        <v>1.961429476737976</v>
       </c>
       <c r="B1">
-        <v>2.470255655128852</v>
+        <v>2.085790157318115</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.086690187454224</v>
       </c>
       <c r="D1">
-        <v>2.282683596879825</v>
+        <v>2.598159313201904</v>
       </c>
       <c r="E1">
-        <v>1.19761496401526</v>
+        <v>3.367278099060059</v>
       </c>
     </row>
   </sheetData>
